--- a/testdata/01.xlsx
+++ b/testdata/01.xlsx
@@ -1,52 +1,106 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="シート2" sheetId="1" r:id="rId4"/>
+    <sheet name="シート2" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
-    <t>(</t>
+    <t xml:space="preserve">(</t>
   </si>
   <si>
-    <t>i</t>
+    <t xml:space="preserve">i</t>
   </si>
   <si>
-    <t>f</t>
+    <t xml:space="preserve">f</t>
   </si>
   <si>
-    <t>=</t>
+    <t xml:space="preserve">=</t>
   </si>
   <si>
-    <t>)</t>
+    <t xml:space="preserve">3</t>
   </si>
   <si>
-    <t>+</t>
+    <t xml:space="preserve">2</t>
   </si>
   <si>
-    <t>**</t>
+    <t xml:space="preserve">)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="6">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -54,57 +108,54 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="10">
-    <border/>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
       <right style="thin">
         <color rgb="FFFFFFFF"/>
       </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
+      <top style="medium"/>
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
+      <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin">
         <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
         <color rgb="FFFFFFFF"/>
       </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
+      <top style="medium"/>
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
+      <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin">
         <color rgb="FFFFFFFF"/>
       </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
+      <right style="medium"/>
+      <top style="medium"/>
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
+      <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
       <right style="thin">
         <color rgb="FFFFFFFF"/>
       </right>
@@ -114,8 +165,9 @@
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
+      <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin">
         <color rgb="FFFFFFFF"/>
       </left>
@@ -128,36 +180,33 @@
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
+      <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin">
         <color rgb="FFFFFFFF"/>
       </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
+      <right style="medium"/>
       <top style="thin">
         <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
+      <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
       <right style="thin">
         <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
         <color rgb="FFFFFFFF"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom style="medium"/>
+      <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin">
         <color rgb="FFFFFFFF"/>
       </left>
@@ -167,518 +216,372 @@
       <top style="thin">
         <color rgb="FFFFFFFF"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom style="medium"/>
+      <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin">
         <color rgb="FFFFFFFF"/>
       </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
+      <right style="medium"/>
       <top style="thin">
         <color rgb="FFFFFFFF"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom style="medium"/>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="12">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf quotePrefix="1" borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
-  <a:themeElements>
-    <a:clrScheme name="Sheets">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="000000"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4285F4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="EA4335"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="FBBC04"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="34A853"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="FF6D01"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="46BDC6"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="1155CC"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="1155CC"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Sheets">
-      <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:CD81"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K6" activeCellId="0" sqref="K6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" min="1" max="88" width="2.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="88" min="1" style="0" width="2.14"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B1" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="C1" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="D1" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="E1" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="F1" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="G1" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="H1" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="I1" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="J1" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="K1" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="L1" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="M1" s="1">
-        <v>13.0</v>
-      </c>
-      <c r="N1" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="O1" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="P1" s="1">
-        <v>16.0</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="R1" s="1">
-        <v>18.0</v>
-      </c>
-      <c r="S1" s="1">
-        <v>19.0</v>
-      </c>
-      <c r="T1" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="U1" s="1">
-        <v>21.0</v>
-      </c>
-      <c r="V1" s="1">
-        <v>22.0</v>
-      </c>
-      <c r="W1" s="1">
-        <v>23.0</v>
-      </c>
-      <c r="X1" s="1">
-        <v>24.0</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>25.0</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>26.0</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>27.0</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>28.0</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>29.0</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>31.0</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>32.0</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>33.0</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>34.0</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>35.0</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>36.0</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>37.0</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>38.0</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>39.0</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>40.0</v>
-      </c>
-      <c r="AO1" s="1">
-        <v>41.0</v>
-      </c>
-      <c r="AP1" s="1">
-        <v>42.0</v>
-      </c>
-      <c r="AQ1" s="1">
-        <v>43.0</v>
-      </c>
-      <c r="AR1" s="1">
-        <v>44.0</v>
-      </c>
-      <c r="AS1" s="1">
-        <v>45.0</v>
-      </c>
-      <c r="AT1" s="1">
-        <v>46.0</v>
-      </c>
-      <c r="AU1" s="1">
-        <v>47.0</v>
-      </c>
-      <c r="AV1" s="1">
-        <v>48.0</v>
-      </c>
-      <c r="AW1" s="1">
-        <v>49.0</v>
-      </c>
-      <c r="AX1" s="1">
-        <v>50.0</v>
-      </c>
-      <c r="AY1" s="1">
-        <v>51.0</v>
-      </c>
-      <c r="AZ1" s="1">
-        <v>52.0</v>
-      </c>
-      <c r="BA1" s="1">
-        <v>53.0</v>
-      </c>
-      <c r="BB1" s="1">
-        <v>54.0</v>
-      </c>
-      <c r="BC1" s="1">
-        <v>55.0</v>
-      </c>
-      <c r="BD1" s="1">
-        <v>56.0</v>
-      </c>
-      <c r="BE1" s="1">
-        <v>57.0</v>
-      </c>
-      <c r="BF1" s="1">
-        <v>58.0</v>
-      </c>
-      <c r="BG1" s="1">
-        <v>59.0</v>
-      </c>
-      <c r="BH1" s="1">
-        <v>60.0</v>
-      </c>
-      <c r="BI1" s="1">
-        <v>61.0</v>
-      </c>
-      <c r="BJ1" s="1">
-        <v>62.0</v>
-      </c>
-      <c r="BK1" s="1">
-        <v>63.0</v>
-      </c>
-      <c r="BL1" s="1">
-        <v>64.0</v>
-      </c>
-      <c r="BM1" s="1">
-        <v>65.0</v>
-      </c>
-      <c r="BN1" s="1">
-        <v>66.0</v>
-      </c>
-      <c r="BO1" s="1">
-        <v>67.0</v>
-      </c>
-      <c r="BP1" s="1">
-        <v>68.0</v>
-      </c>
-      <c r="BQ1" s="1">
-        <v>69.0</v>
-      </c>
-      <c r="BR1" s="1">
-        <v>70.0</v>
-      </c>
-      <c r="BS1" s="1">
-        <v>71.0</v>
-      </c>
-      <c r="BT1" s="1">
-        <v>72.0</v>
-      </c>
-      <c r="BU1" s="1">
-        <v>73.0</v>
-      </c>
-      <c r="BV1" s="1">
-        <v>74.0</v>
-      </c>
-      <c r="BW1" s="1">
-        <v>75.0</v>
-      </c>
-      <c r="BX1" s="1">
-        <v>76.0</v>
-      </c>
-      <c r="BY1" s="1">
-        <v>77.0</v>
-      </c>
-      <c r="BZ1" s="1">
-        <v>78.0</v>
-      </c>
-      <c r="CA1" s="1">
-        <v>79.0</v>
-      </c>
-      <c r="CB1" s="1">
-        <v>80.0</v>
-      </c>
-      <c r="CC1" s="1">
-        <v>81.0</v>
-      </c>
-      <c r="CD1" s="1">
-        <v>82.0</v>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB1" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC1" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD1" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AE1" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="AF1" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG1" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="AH1" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI1" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="AJ1" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK1" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="AL1" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM1" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="AN1" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="AO1" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP1" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="AQ1" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="AR1" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="AS1" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="AT1" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="AU1" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="AV1" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="AW1" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="AX1" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="AY1" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="AZ1" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="BA1" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="BB1" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="BC1" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="BD1" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="BE1" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="BF1" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="BG1" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="BH1" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="BI1" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="BJ1" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="BK1" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="BL1" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="BM1" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="BN1" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="BO1" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="BP1" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="BQ1" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="BR1" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="BS1" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="BT1" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="BU1" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="BV1" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="BW1" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="BX1" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="BY1" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="BZ1" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="CA1" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="CB1" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="CC1" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="CD1" s="1" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -760,7 +663,7 @@
       <c r="CB2" s="3"/>
       <c r="CC2" s="4"/>
     </row>
-    <row r="3">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="5"/>
       <c r="C3" s="6" t="s">
         <v>0</v>
@@ -848,25 +751,25 @@
       <c r="CB3" s="7"/>
       <c r="CC3" s="8"/>
     </row>
-    <row r="4">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="5"/>
       <c r="C4" s="7"/>
       <c r="D4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="7"/>
-      <c r="G4" s="6">
-        <v>3.0</v>
+      <c r="G4" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="H4" s="7"/>
-      <c r="I4" s="6">
-        <v>2.0</v>
+      <c r="I4" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
@@ -940,25 +843,25 @@
       <c r="CB4" s="7"/>
       <c r="CC4" s="8"/>
     </row>
-    <row r="5">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="5"/>
       <c r="C5" s="7"/>
       <c r="D5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="6">
-        <v>2.0</v>
-      </c>
       <c r="J5" s="6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
@@ -1032,28 +935,28 @@
       <c r="CB5" s="7"/>
       <c r="CC5" s="8"/>
     </row>
-    <row r="6">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="5"/>
       <c r="C6" s="7"/>
       <c r="D6" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="J6" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>4</v>
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
@@ -1126,10 +1029,10 @@
       <c r="CB6" s="7"/>
       <c r="CC6" s="8"/>
     </row>
-    <row r="7">
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="5"/>
       <c r="C7" s="6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -1210,7 +1113,7 @@
       <c r="CB7" s="7"/>
       <c r="CC7" s="8"/>
     </row>
-    <row r="8">
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="5"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -1292,7 +1195,7 @@
       <c r="CB8" s="7"/>
       <c r="CC8" s="8"/>
     </row>
-    <row r="9">
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="5"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -1374,7 +1277,7 @@
       <c r="CB9" s="7"/>
       <c r="CC9" s="8"/>
     </row>
-    <row r="10">
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="5"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -1456,7 +1359,7 @@
       <c r="CB10" s="7"/>
       <c r="CC10" s="8"/>
     </row>
-    <row r="11">
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="5"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -1538,7 +1441,7 @@
       <c r="CB11" s="7"/>
       <c r="CC11" s="8"/>
     </row>
-    <row r="12">
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="5"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -1620,7 +1523,7 @@
       <c r="CB12" s="7"/>
       <c r="CC12" s="8"/>
     </row>
-    <row r="13">
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="5"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -1702,7 +1605,7 @@
       <c r="CB13" s="7"/>
       <c r="CC13" s="8"/>
     </row>
-    <row r="14">
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="5"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1784,7 +1687,7 @@
       <c r="CB14" s="7"/>
       <c r="CC14" s="8"/>
     </row>
-    <row r="15">
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="5"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1866,7 +1769,7 @@
       <c r="CB15" s="7"/>
       <c r="CC15" s="8"/>
     </row>
-    <row r="16">
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="5"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1948,7 +1851,7 @@
       <c r="CB16" s="7"/>
       <c r="CC16" s="8"/>
     </row>
-    <row r="17">
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="5"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -2030,7 +1933,7 @@
       <c r="CB17" s="7"/>
       <c r="CC17" s="8"/>
     </row>
-    <row r="18">
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="5"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -2112,7 +2015,7 @@
       <c r="CB18" s="7"/>
       <c r="CC18" s="8"/>
     </row>
-    <row r="19">
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="5"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -2194,7 +2097,7 @@
       <c r="CB19" s="7"/>
       <c r="CC19" s="8"/>
     </row>
-    <row r="20">
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="5"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -2276,7 +2179,7 @@
       <c r="CB20" s="7"/>
       <c r="CC20" s="8"/>
     </row>
-    <row r="21">
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="5"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -2358,7 +2261,7 @@
       <c r="CB21" s="7"/>
       <c r="CC21" s="8"/>
     </row>
-    <row r="22">
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="5"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -2440,7 +2343,7 @@
       <c r="CB22" s="7"/>
       <c r="CC22" s="8"/>
     </row>
-    <row r="23">
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="5"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -2522,7 +2425,7 @@
       <c r="CB23" s="7"/>
       <c r="CC23" s="8"/>
     </row>
-    <row r="24">
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="5"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -2604,7 +2507,7 @@
       <c r="CB24" s="7"/>
       <c r="CC24" s="8"/>
     </row>
-    <row r="25">
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="5"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -2686,7 +2589,7 @@
       <c r="CB25" s="7"/>
       <c r="CC25" s="8"/>
     </row>
-    <row r="26">
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="5"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -2768,7 +2671,7 @@
       <c r="CB26" s="7"/>
       <c r="CC26" s="8"/>
     </row>
-    <row r="27">
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="5"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -2850,7 +2753,7 @@
       <c r="CB27" s="7"/>
       <c r="CC27" s="8"/>
     </row>
-    <row r="28">
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="5"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -2932,7 +2835,7 @@
       <c r="CB28" s="7"/>
       <c r="CC28" s="8"/>
     </row>
-    <row r="29">
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="5"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -3014,7 +2917,7 @@
       <c r="CB29" s="7"/>
       <c r="CC29" s="8"/>
     </row>
-    <row r="30">
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="5"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -3096,7 +2999,7 @@
       <c r="CB30" s="7"/>
       <c r="CC30" s="8"/>
     </row>
-    <row r="31">
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="5"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -3178,7 +3081,7 @@
       <c r="CB31" s="7"/>
       <c r="CC31" s="8"/>
     </row>
-    <row r="32">
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="5"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -3260,7 +3163,7 @@
       <c r="CB32" s="7"/>
       <c r="CC32" s="8"/>
     </row>
-    <row r="33">
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="5"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -3342,7 +3245,7 @@
       <c r="CB33" s="7"/>
       <c r="CC33" s="8"/>
     </row>
-    <row r="34">
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="5"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -3424,7 +3327,7 @@
       <c r="CB34" s="7"/>
       <c r="CC34" s="8"/>
     </row>
-    <row r="35">
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="5"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -3506,7 +3409,7 @@
       <c r="CB35" s="7"/>
       <c r="CC35" s="8"/>
     </row>
-    <row r="36">
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="5"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -3588,7 +3491,7 @@
       <c r="CB36" s="7"/>
       <c r="CC36" s="8"/>
     </row>
-    <row r="37">
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="5"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -3670,7 +3573,7 @@
       <c r="CB37" s="7"/>
       <c r="CC37" s="8"/>
     </row>
-    <row r="38">
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="5"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -3752,7 +3655,7 @@
       <c r="CB38" s="7"/>
       <c r="CC38" s="8"/>
     </row>
-    <row r="39">
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="5"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -3834,7 +3737,7 @@
       <c r="CB39" s="7"/>
       <c r="CC39" s="8"/>
     </row>
-    <row r="40">
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="5"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -3916,7 +3819,7 @@
       <c r="CB40" s="7"/>
       <c r="CC40" s="8"/>
     </row>
-    <row r="41">
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="5"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -3998,7 +3901,7 @@
       <c r="CB41" s="7"/>
       <c r="CC41" s="8"/>
     </row>
-    <row r="42">
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="5"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -4080,7 +3983,7 @@
       <c r="CB42" s="7"/>
       <c r="CC42" s="8"/>
     </row>
-    <row r="43">
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="5"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -4162,7 +4065,7 @@
       <c r="CB43" s="7"/>
       <c r="CC43" s="8"/>
     </row>
-    <row r="44">
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="5"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -4244,7 +4147,7 @@
       <c r="CB44" s="7"/>
       <c r="CC44" s="8"/>
     </row>
-    <row r="45">
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="5"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -4326,7 +4229,7 @@
       <c r="CB45" s="7"/>
       <c r="CC45" s="8"/>
     </row>
-    <row r="46">
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="5"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -4408,7 +4311,7 @@
       <c r="CB46" s="7"/>
       <c r="CC46" s="8"/>
     </row>
-    <row r="47">
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="5"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -4490,7 +4393,7 @@
       <c r="CB47" s="7"/>
       <c r="CC47" s="8"/>
     </row>
-    <row r="48">
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="5"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -4572,7 +4475,7 @@
       <c r="CB48" s="7"/>
       <c r="CC48" s="8"/>
     </row>
-    <row r="49">
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="5"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -4654,7 +4557,7 @@
       <c r="CB49" s="7"/>
       <c r="CC49" s="8"/>
     </row>
-    <row r="50">
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="5"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -4736,7 +4639,7 @@
       <c r="CB50" s="7"/>
       <c r="CC50" s="8"/>
     </row>
-    <row r="51">
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="5"/>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -4818,7 +4721,7 @@
       <c r="CB51" s="7"/>
       <c r="CC51" s="8"/>
     </row>
-    <row r="52">
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="5"/>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -4900,7 +4803,7 @@
       <c r="CB52" s="7"/>
       <c r="CC52" s="8"/>
     </row>
-    <row r="53">
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="5"/>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -4982,7 +4885,7 @@
       <c r="CB53" s="7"/>
       <c r="CC53" s="8"/>
     </row>
-    <row r="54">
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="5"/>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -5064,7 +4967,7 @@
       <c r="CB54" s="7"/>
       <c r="CC54" s="8"/>
     </row>
-    <row r="55">
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="5"/>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -5146,7 +5049,7 @@
       <c r="CB55" s="7"/>
       <c r="CC55" s="8"/>
     </row>
-    <row r="56">
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="5"/>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -5228,7 +5131,7 @@
       <c r="CB56" s="7"/>
       <c r="CC56" s="8"/>
     </row>
-    <row r="57">
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="5"/>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -5310,7 +5213,7 @@
       <c r="CB57" s="7"/>
       <c r="CC57" s="8"/>
     </row>
-    <row r="58">
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="5"/>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -5392,7 +5295,7 @@
       <c r="CB58" s="7"/>
       <c r="CC58" s="8"/>
     </row>
-    <row r="59">
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="5"/>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -5474,7 +5377,7 @@
       <c r="CB59" s="7"/>
       <c r="CC59" s="8"/>
     </row>
-    <row r="60">
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="5"/>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -5556,7 +5459,7 @@
       <c r="CB60" s="7"/>
       <c r="CC60" s="8"/>
     </row>
-    <row r="61">
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="5"/>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -5638,7 +5541,7 @@
       <c r="CB61" s="7"/>
       <c r="CC61" s="8"/>
     </row>
-    <row r="62">
+    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="5"/>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -5720,7 +5623,7 @@
       <c r="CB62" s="7"/>
       <c r="CC62" s="8"/>
     </row>
-    <row r="63">
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="5"/>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -5802,7 +5705,7 @@
       <c r="CB63" s="7"/>
       <c r="CC63" s="8"/>
     </row>
-    <row r="64">
+    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="5"/>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -5884,7 +5787,7 @@
       <c r="CB64" s="7"/>
       <c r="CC64" s="8"/>
     </row>
-    <row r="65">
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="5"/>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -5966,7 +5869,7 @@
       <c r="CB65" s="7"/>
       <c r="CC65" s="8"/>
     </row>
-    <row r="66">
+    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="5"/>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -6048,7 +5951,7 @@
       <c r="CB66" s="7"/>
       <c r="CC66" s="8"/>
     </row>
-    <row r="67">
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="5"/>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -6130,7 +6033,7 @@
       <c r="CB67" s="7"/>
       <c r="CC67" s="8"/>
     </row>
-    <row r="68">
+    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="5"/>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -6212,7 +6115,7 @@
       <c r="CB68" s="7"/>
       <c r="CC68" s="8"/>
     </row>
-    <row r="69">
+    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="5"/>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -6294,7 +6197,7 @@
       <c r="CB69" s="7"/>
       <c r="CC69" s="8"/>
     </row>
-    <row r="70">
+    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="5"/>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -6376,7 +6279,7 @@
       <c r="CB70" s="7"/>
       <c r="CC70" s="8"/>
     </row>
-    <row r="71">
+    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="5"/>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -6458,7 +6361,7 @@
       <c r="CB71" s="7"/>
       <c r="CC71" s="8"/>
     </row>
-    <row r="72">
+    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="5"/>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -6540,7 +6443,7 @@
       <c r="CB72" s="7"/>
       <c r="CC72" s="8"/>
     </row>
-    <row r="73">
+    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="5"/>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -6622,7 +6525,7 @@
       <c r="CB73" s="7"/>
       <c r="CC73" s="8"/>
     </row>
-    <row r="74">
+    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="5"/>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -6704,7 +6607,7 @@
       <c r="CB74" s="7"/>
       <c r="CC74" s="8"/>
     </row>
-    <row r="75">
+    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="5"/>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -6786,7 +6689,7 @@
       <c r="CB75" s="7"/>
       <c r="CC75" s="8"/>
     </row>
-    <row r="76">
+    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="5"/>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -6868,7 +6771,7 @@
       <c r="CB76" s="7"/>
       <c r="CC76" s="8"/>
     </row>
-    <row r="77">
+    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="5"/>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -6950,7 +6853,7 @@
       <c r="CB77" s="7"/>
       <c r="CC77" s="8"/>
     </row>
-    <row r="78">
+    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="5"/>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -7032,7 +6935,7 @@
       <c r="CB78" s="7"/>
       <c r="CC78" s="8"/>
     </row>
-    <row r="79">
+    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="5"/>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -7114,7 +7017,7 @@
       <c r="CB79" s="7"/>
       <c r="CC79" s="8"/>
     </row>
-    <row r="80">
+    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="5"/>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -7196,89 +7099,95 @@
       <c r="CB80" s="7"/>
       <c r="CC80" s="8"/>
     </row>
-    <row r="81">
-      <c r="B81" s="10"/>
-      <c r="C81" s="11"/>
-      <c r="D81" s="11"/>
-      <c r="E81" s="11"/>
-      <c r="F81" s="11"/>
-      <c r="G81" s="11"/>
-      <c r="H81" s="11"/>
-      <c r="I81" s="11"/>
-      <c r="J81" s="11"/>
-      <c r="K81" s="11"/>
-      <c r="L81" s="11"/>
-      <c r="M81" s="11"/>
-      <c r="N81" s="11"/>
-      <c r="O81" s="11"/>
-      <c r="P81" s="11"/>
-      <c r="Q81" s="11"/>
-      <c r="R81" s="11"/>
-      <c r="S81" s="11"/>
-      <c r="T81" s="11"/>
-      <c r="U81" s="11"/>
-      <c r="V81" s="11"/>
-      <c r="W81" s="11"/>
-      <c r="X81" s="11"/>
-      <c r="Y81" s="11"/>
-      <c r="Z81" s="11"/>
-      <c r="AA81" s="11"/>
-      <c r="AB81" s="11"/>
-      <c r="AC81" s="11"/>
-      <c r="AD81" s="11"/>
-      <c r="AE81" s="11"/>
-      <c r="AF81" s="11"/>
-      <c r="AG81" s="11"/>
-      <c r="AH81" s="11"/>
-      <c r="AI81" s="11"/>
-      <c r="AJ81" s="11"/>
-      <c r="AK81" s="11"/>
-      <c r="AL81" s="11"/>
-      <c r="AM81" s="11"/>
-      <c r="AN81" s="11"/>
-      <c r="AO81" s="11"/>
-      <c r="AP81" s="11"/>
-      <c r="AQ81" s="11"/>
-      <c r="AR81" s="11"/>
-      <c r="AS81" s="11"/>
-      <c r="AT81" s="11"/>
-      <c r="AU81" s="11"/>
-      <c r="AV81" s="11"/>
-      <c r="AW81" s="11"/>
-      <c r="AX81" s="11"/>
-      <c r="AY81" s="11"/>
-      <c r="AZ81" s="11"/>
-      <c r="BA81" s="11"/>
-      <c r="BB81" s="11"/>
-      <c r="BC81" s="11"/>
-      <c r="BD81" s="11"/>
-      <c r="BE81" s="11"/>
-      <c r="BF81" s="11"/>
-      <c r="BG81" s="11"/>
-      <c r="BH81" s="11"/>
-      <c r="BI81" s="11"/>
-      <c r="BJ81" s="11"/>
-      <c r="BK81" s="11"/>
-      <c r="BL81" s="11"/>
-      <c r="BM81" s="11"/>
-      <c r="BN81" s="11"/>
-      <c r="BO81" s="11"/>
-      <c r="BP81" s="11"/>
-      <c r="BQ81" s="11"/>
-      <c r="BR81" s="11"/>
-      <c r="BS81" s="11"/>
-      <c r="BT81" s="11"/>
-      <c r="BU81" s="11"/>
-      <c r="BV81" s="11"/>
-      <c r="BW81" s="11"/>
-      <c r="BX81" s="11"/>
-      <c r="BY81" s="11"/>
-      <c r="BZ81" s="11"/>
-      <c r="CA81" s="11"/>
-      <c r="CB81" s="11"/>
-      <c r="CC81" s="12"/>
+    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B81" s="9"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="10"/>
+      <c r="I81" s="10"/>
+      <c r="J81" s="10"/>
+      <c r="K81" s="10"/>
+      <c r="L81" s="10"/>
+      <c r="M81" s="10"/>
+      <c r="N81" s="10"/>
+      <c r="O81" s="10"/>
+      <c r="P81" s="10"/>
+      <c r="Q81" s="10"/>
+      <c r="R81" s="10"/>
+      <c r="S81" s="10"/>
+      <c r="T81" s="10"/>
+      <c r="U81" s="10"/>
+      <c r="V81" s="10"/>
+      <c r="W81" s="10"/>
+      <c r="X81" s="10"/>
+      <c r="Y81" s="10"/>
+      <c r="Z81" s="10"/>
+      <c r="AA81" s="10"/>
+      <c r="AB81" s="10"/>
+      <c r="AC81" s="10"/>
+      <c r="AD81" s="10"/>
+      <c r="AE81" s="10"/>
+      <c r="AF81" s="10"/>
+      <c r="AG81" s="10"/>
+      <c r="AH81" s="10"/>
+      <c r="AI81" s="10"/>
+      <c r="AJ81" s="10"/>
+      <c r="AK81" s="10"/>
+      <c r="AL81" s="10"/>
+      <c r="AM81" s="10"/>
+      <c r="AN81" s="10"/>
+      <c r="AO81" s="10"/>
+      <c r="AP81" s="10"/>
+      <c r="AQ81" s="10"/>
+      <c r="AR81" s="10"/>
+      <c r="AS81" s="10"/>
+      <c r="AT81" s="10"/>
+      <c r="AU81" s="10"/>
+      <c r="AV81" s="10"/>
+      <c r="AW81" s="10"/>
+      <c r="AX81" s="10"/>
+      <c r="AY81" s="10"/>
+      <c r="AZ81" s="10"/>
+      <c r="BA81" s="10"/>
+      <c r="BB81" s="10"/>
+      <c r="BC81" s="10"/>
+      <c r="BD81" s="10"/>
+      <c r="BE81" s="10"/>
+      <c r="BF81" s="10"/>
+      <c r="BG81" s="10"/>
+      <c r="BH81" s="10"/>
+      <c r="BI81" s="10"/>
+      <c r="BJ81" s="10"/>
+      <c r="BK81" s="10"/>
+      <c r="BL81" s="10"/>
+      <c r="BM81" s="10"/>
+      <c r="BN81" s="10"/>
+      <c r="BO81" s="10"/>
+      <c r="BP81" s="10"/>
+      <c r="BQ81" s="10"/>
+      <c r="BR81" s="10"/>
+      <c r="BS81" s="10"/>
+      <c r="BT81" s="10"/>
+      <c r="BU81" s="10"/>
+      <c r="BV81" s="10"/>
+      <c r="BW81" s="10"/>
+      <c r="BX81" s="10"/>
+      <c r="BY81" s="10"/>
+      <c r="BZ81" s="10"/>
+      <c r="CA81" s="10"/>
+      <c r="CB81" s="10"/>
+      <c r="CC81" s="11"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/testdata/01.xlsx
+++ b/testdata/01.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t xml:space="preserve">(</t>
   </si>
@@ -49,7 +49,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">**</t>
+    <t xml:space="preserve">*</t>
   </si>
   <si>
     <t xml:space="preserve">0</t>
@@ -325,10 +325,10 @@
   <dimension ref="A1:S81"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R1" activeCellId="0" sqref="R1"/>
+      <selection pane="topLeft" activeCell="K10" activeCellId="0" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="1" style="0" width="2.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="962" style="0" width="11.52"/>
@@ -504,21 +504,23 @@
       <c r="E6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="6" t="s">
+      <c r="F6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="7"/>
+      <c r="J6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="K6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="L6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="7"/>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
